--- a/data/trans_bre/P14B24_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.624347090220698</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.031383355807195</v>
+        <v>3.031383355807199</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.885596899546897</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3954132883437763</v>
+        <v>0.3954132883437769</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.857556722326484</v>
+        <v>3.9602569694523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2476062052042297</v>
+        <v>-0.2500425141997479</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.489510085636245</v>
+        <v>1.432284893755912</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.03432763725113732</v>
+        <v>-0.02415163727958474</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.434460852627865</v>
+        <v>7.574037154628538</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.094325285334698</v>
+        <v>6.097220035427906</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5.360154030617476</v>
+        <v>5.61497947269492</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.032816865355354</v>
+        <v>1.006927110162113</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3973217465962746</v>
+        <v>0.3442050588964873</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.66328387942177</v>
+        <v>2.566835155824218</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.159431811927641</v>
+        <v>0.1365530152591271</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9819846018367742</v>
+        <v>0.9455457995984838</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.648114630388846</v>
+        <v>2.588426635433376</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.579868295771171</v>
+        <v>5.552039217319723</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.828727804340183</v>
+        <v>4.877369613041199</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.582475474360579</v>
+        <v>4.948395550533476</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>1.436504477073762</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.596901192605896</v>
+        <v>3.596901192605895</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.413394918119875</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3181088426426779</v>
+        <v>0.4630966320989449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.186362715490877</v>
+        <v>2.217818124377473</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.08812290249782052</v>
+        <v>0.1928347474759628</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.9938595941171531</v>
+        <v>0.9747613646307935</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.637825634882028</v>
+        <v>2.817026432281558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.056143880252813</v>
+        <v>5.111668573394213</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>8.758940442232888</v>
+        <v>10.51202339636207</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.102893141597367</v>
+        <v>4.930102851154287</v>
       </c>
     </row>
     <row r="13">
@@ -801,14 +801,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8375728196329266</v>
+        <v>0.8707921069075806</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7881777780850835</v>
+        <v>0.7570515831380158</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>0.2015246549141596</v>
+        <v>0.1909415758774515</v>
       </c>
     </row>
     <row r="15">
@@ -819,14 +819,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.617817606605908</v>
+        <v>3.567910380534949</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.059080012848022</v>
+        <v>3.957092598926608</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2.604420443391944</v>
+        <v>2.546257917929167</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>3.028880612187231</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.496755341763451</v>
+        <v>3.496755341763449</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.824544200457838</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.30488322674568</v>
+        <v>1.304883226745679</v>
       </c>
     </row>
     <row r="17">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.263742741294849</v>
+        <v>2.308341302507642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.556424670539087</v>
+        <v>2.63292376735555</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.734106297029404</v>
+        <v>1.631926393394606</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.7938150256656028</v>
+        <v>0.8198034509521943</v>
       </c>
     </row>
     <row r="18">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.801592674929565</v>
+        <v>3.805720646423321</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.478940191989275</v>
+        <v>4.388940317708697</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4.421083235355018</v>
+        <v>4.554534094065803</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.933589041687358</v>
+        <v>1.982367146258626</v>
       </c>
     </row>
     <row r="19">
